--- a/spreadsheet/macrofree/azureopenai_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azureopenai_sg_checklist.zh-Hant.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>監視即用即付的速率限制：如果使用即用即付方法，請管理模型部署的速率限制，並監視每分鐘令牌數 （TPM） 和每分鐘請求數 （RPM） 的使用方式。</t>
+          <t>監控即用即付的速率限制：如果您使用的是即用即付方法，請管理模型部署的速率限制，並監控每分鐘令牌數 （TPM） 和每分鐘請求數 （RPM） 的使用方式。</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>這些重要的輸送量資訊提供了確保從配額分配足夠的 TPM 以滿足部署需求所需的資訊。分配足夠的配額可以防止對已部署模型的調用受到限制。</t>
+          <t>此重要的輸送量資訊提供了確保從配額中分配足夠的 TPM 以滿足部署需求所需的資訊。分配足夠的配額可防止對已部署模型的調用受到限制。</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>監視預置輸送量的預置託管利用率：如果使用預置輸送量付款模型，請監視預置託管的利用率。</t>
+          <t>監控預置輸送量的預置託管利用率：如果您使用的是預置輸送量付款模型，請監控預置託管利用率。</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>請務必監視預配管理的利用率，以確保其不超過 100%，以防止對已部署模型的調用受到限制。</t>
+          <t>請務必監控預置託管利用率，以確保其不超過 100%，以防止對已部署模型的調用受到限制。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>調整內容過濾器：調整內容過濾器，以最大程度地減少過於激進的篩檢程式造成的誤報。</t>
+          <t>優化內容過濾器：優化內容篩檢程式以最大限度地減少過於激進的篩檢程式造成的誤報。</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>內容過濾器根據不透明的風險分析阻止提示或完成。確保對內容過濾器進行調整，以允許工作負載的預期使用量。</t>
+          <t>內容過濾器根據不透明的風險分析阻止提示或完成。確保優化內容篩檢程式以允許工作負載的預期使用方式。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>安全密鑰：如果體系結構需要基於 Azure OpenAI 金鑰的身份驗證，請將這些密鑰存儲在 Azure Key Vault 中，而不是應用程式代碼中。</t>
+          <t>安全密鑰：如果您的體系結構需要基於 Azure OpenAI 金鑰的身份驗證，請將這些金鑰存儲在 Azure Key Vault 中，而不是存儲在應用程式代碼中。</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>通過將機密存儲在 Key Vault 中來將機密與代碼分離，可以減少洩露機密的機會。分離還有助於對機密進行集中管理，從而減輕密鑰輪換等職責。</t>
+          <t>通過將機密存儲在 Key Vault 中來將機密與代碼分開，可以減少洩露機密的可能性。分離還有助於集中管理金鑰，從而減輕金鑰輪換等責任。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>限制訪問：禁用對 Azure OpenAI 的公共訪問，除非工作負載需要。如果從 Azure 虛擬網路中的使用者進行連接，請創建專用終結點。</t>
+          <t>限制訪問：除非工作負載需要，否則請禁用對 Azure OpenAI 的公共訪問。如果要從 Azure 虛擬網路中的使用者進行連接，請創建專用終結點。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>控制對 Azure OpenAI 的訪問有助於防止來自未經授權用戶的攻擊。使用專用終結點可確保網路流量在應用程式和平台之間保持私密。</t>
+          <t>控制對 Azure OpenAI 的訪問有助於防止來自未經授權的用戶的攻擊。使用私有終端節點可確保網路流量在應用程式和平台之間保持私有。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID：使用 Microsoft Entra ID 進行身份驗證，並使用基於角色的訪問控制 （RBAC） 授權訪問 Azure OpenAI。在 Azure AI 服務中禁用本地身份驗證，並將“disableLocalAuth”設置為“true”。向執行完成或圖像生成的標識授予認知服務 OpenAI 使用者角色。授予模型自動化管道和臨時數據科學訪問許可權，例如認知服務 OpenAI 貢獻者。</t>
+          <t>Microsoft Entra ID：使用 Microsoft Entra ID 進行身份驗證，並使用基於角色的訪問控制 （RBAC） 授予對 Azure OpenAI 的訪問許可權。在 Azure AI 服務中禁用本地身份驗證，並將“disableLocalAuth”設置為“true”。向執行完成或圖像生成的標識授予認知服務 OpenAI 使用者角色。授予模型自動化管道和臨時數據科學訪問許可權，例如認知服務 OpenAI Contributor。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 可以集中標識管理元件，並消除 API 金鑰的使用。將 RBAC 與 Microsoft Entra ID 結合使用可確保使用者或組具有完成工作所需的許可權。使用 Azure OpenAI API 金鑰無法實現這種精細的存取控制。</t>
+          <t>使用 Microsoft Entra ID 可以集中身份管理元件，並消除 API 金鑰的使用。將 RBAC 與 Microsoft Entra ID 結合使用可確保使用者或組完全具有完成其工作所需的許可權。Azure OpenAI API 金鑰無法實現這種精細訪問控制。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>使用客戶管理的金鑰：使用客戶管理的金鑰進行微調的模型和上傳到 Azure OpenAI 的訓練數據。</t>
+          <t>使用客戶管理的金鑰：將客戶管理的金鑰用於上傳到 Azure OpenAI 的微調模型和訓練數據。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>使用客戶管理的金鑰可以更靈活地創建、輪換、禁用和撤銷訪問控制。</t>
+          <t>使用客戶管理的金鑰可以讓您更靈活地創建、輪換、禁用和撤銷訪問控制。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>防範越獄攻擊：使用 Azure AI 內容安全工作室檢測越獄風險。</t>
+          <t>防範越獄攻擊：使用 Azure AI Content Safety Studio 檢測越獄風險。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>設計用戶端代碼以設置限制：自定義用戶端應使用 Azure OpenAI 完成 API 的限制功能，例如每個模型的令牌數 （“max_tokens”） 或生成完成數 （“n”） 的最大限制。設置限制可確保伺服器產生的產品不會超過用戶端的需求。</t>
+          <t>設計用戶端代碼以設置限制：自定義用戶端應使用 Azure OpenAI 補全 API 的限制功能，例如每個模型的令牌數最大限制 （'max_tokens'） 或要生成的補全數 （'n'）。設置限制可確保伺服器產生的數據不會超過用戶端需要。</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>使用 API 功能來限制使用可以使服務使用與客戶需求保持一致。這通過確保模型不會生成消耗過多代幣的過長回應來節省資金。</t>
+          <t>使用 API 功能限制使用可以使服務使用與客戶需求保持一致。這可以通過確保模型不會生成過長的回應來節省資金，從而消耗不必要的令牌。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>監視即用即付使用方式：如果使用即用即付方法，請監視 TPM 和 RPM 的使用方式。使用該資訊為架構設計決策提供資訊，例如要使用的模型，並優化提示大小。</t>
+          <t>監控即用即付的使用方式：如果您使用即用即付方式，請監控 TPM 和 RPM 的使用方式。使用該資訊為架構設計決策提供資訊，例如使用哪些模型，並優化提示大小。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>持續監視 TPM 和 RPM 可提供相關指標，以優化 Azure OpenAI 模型的成本。您可以將此監視與模型功能和模型定價相結合，以優化模型使用。您還可以使用此監視來優化提示大小。</t>
+          <t>持續監視 TPM 和 RPM 可為你提供相關指標，以優化 Azure OpenAI 模型的成本。您可以將此監控與模型功能和模型定價相結合，以優化模型使用。您還可以使用此監控來優化提示大小。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>監視預設輸送量使用方式：如果使用預設輸送量，請監視預設管理的利用率，以確保不會未充分利用所購買的預設輸送量。</t>
+          <t>監控預置輸送量使用方式：如果您使用預置輸送量，請監控預置託管利用率，以確保您購買的預置輸送量不會未充分利用。</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>持續監控預置管理的利用率可為您提供所需的資訊，以便在您未充分利用預置輸送量時瞭解。</t>
+          <t>持續監控預置託管利用率可為您提供瞭解預置輸送量是否未充分利用所需的資訊。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>成本監視、設置預算和設置警報為治理提供了適當的問責流程。</t>
+          <t>成本監控、設置預算和設置警報為治理提供了適當的問責流程。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>診斷收集和分析指標和日誌，説明你監視 Azure OpenAI 的可用性、性能和操作。</t>
+          <t>診斷功能收集和分析指標和日誌，説明你監視 Azure OpenAI 的可用性、性能和操作。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6185,7 +6185,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
